--- a/two-way-xlookup-demo.xlsx
+++ b/two-way-xlookup-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E90E1E0-012C-4FA1-BDD3-AA6579436B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185C6F5-4C86-4FFF-BA71-90D3F259F2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{24E64B8D-A8F1-4826-8C22-3197ABB71ABD}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Majestic</t>
   </si>
@@ -66,14 +88,24 @@
   </si>
   <si>
     <t>Desert Winds</t>
+  </si>
+  <si>
+    <t>Movie:</t>
+  </si>
+  <si>
+    <t>Theater:</t>
+  </si>
+  <si>
+    <t>Value:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -104,19 +136,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -133,6 +163,9 @@
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -147,14 +180,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0CE12A7-ED6D-4658-B032-DABD6BCBD051}" name="films" displayName="films" ref="A1:E6" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0CE12A7-ED6D-4658-B032-DABD6BCBD051}" name="films" displayName="films" ref="A1:E6" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A1:E6" xr:uid="{A0CE12A7-ED6D-4658-B032-DABD6BCBD051}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0D48F87C-C0E5-4E58-A992-059308F2CB62}" name="Movie"/>
-    <tableColumn id="2" xr3:uid="{18EDCAA2-7F39-4534-A306-D29FC46B1403}" name="Majestic" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BAC10587-382A-4715-B229-AD3A60481D59}" name="Starlight" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{746C6FA2-D0A9-447D-BB12-008734B990DC}" name="Regal Dome" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{01AC8274-9944-4043-AD61-F3D9F0DD59EC}" name="Cinema Plex" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{18EDCAA2-7F39-4534-A306-D29FC46B1403}" name="Majestic" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BAC10587-382A-4715-B229-AD3A60481D59}" name="Starlight" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{746C6FA2-D0A9-447D-BB12-008734B990DC}" name="Regal Dome" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{01AC8274-9944-4043-AD61-F3D9F0DD59EC}" name="Cinema Plex" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -477,15 +510,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC98FCF-B877-4EDB-AFFA-310916A154F6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.45703125" customWidth="1"/>
+    <col min="7" max="8" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.4140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -502,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -518,8 +557,14 @@
       <c r="E2" s="1">
         <v>200000</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -535,8 +580,14 @@
       <c r="E3" s="1">
         <v>390000</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -553,7 +604,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -569,8 +620,15 @@
       <c r="E5" s="1">
         <v>690000</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" cm="1">
+        <f t="array" ref="H5">_xlfn.XLOOKUP(H2, films[#Headers], _xlfn.XLOOKUP(H3, films[Movie], films[]))</f>
+        <v>510000</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
